--- a/data/trans_orig/P5B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20C61F3-9BBE-48F3-98A4-B0E50551242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C6725E-243D-49F9-9EE0-DBAE6B6E46C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A73B122-8541-4AC6-8B68-560B7722AD9F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A9CDB80-2068-4CB6-B902-595307A77EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="353">
   <si>
     <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -98,1036 +98,1006 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>6,84%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2015 (Tasa respuesta: 75,96%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8323EAD4-A604-4B3F-AC11-D13D8FDEDC8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D13438F-FCB5-4E3D-96B5-786969670C57}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2159,10 +2129,10 @@
         <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2147,13 @@
         <v>102089</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -2192,13 +2162,13 @@
         <v>81843</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -2207,13 +2177,13 @@
         <v>183931</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2239,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2287,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2302,7 +2272,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2317,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2302,13 @@
         <v>4578</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2347,13 +2317,13 @@
         <v>7064</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2362,13 +2332,13 @@
         <v>11642</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2353,13 @@
         <v>143516</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
@@ -2398,13 +2368,13 @@
         <v>144011</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>427</v>
@@ -2413,13 +2383,13 @@
         <v>287527</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2508,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2523,7 +2493,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2508,13 @@
         <v>15919</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -2553,13 +2523,13 @@
         <v>19275</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2568,13 +2538,13 @@
         <v>35195</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2559,13 @@
         <v>512631</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>718</v>
@@ -2604,13 +2574,13 @@
         <v>484084</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>1485</v>
@@ -2619,13 +2589,13 @@
         <v>996713</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,7 +2651,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7383C877-3A66-413D-8EC3-6BED42FE946E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDDC9CF-3B1C-41CE-BCC5-D9867DBA0970}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2840,13 +2810,13 @@
         <v>734</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2861,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2846,13 @@
         <v>1557</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2891,13 +2861,13 @@
         <v>1108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2906,13 +2876,13 @@
         <v>2665</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2897,13 @@
         <v>109738</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H6" s="7">
         <v>151</v>
@@ -2942,13 +2912,13 @@
         <v>102279</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M6" s="7">
         <v>306</v>
@@ -2957,13 +2927,13 @@
         <v>212017</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,7 +3007,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3052,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3067,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3052,13 @@
         <v>4223</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3097,13 +3067,13 @@
         <v>4218</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3112,10 +3082,10 @@
         <v>8441</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>152</v>
@@ -3169,7 +3139,7 @@
         <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3207,13 @@
         <v>722</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3258,7 +3228,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3303,7 +3273,7 @@
         <v>695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
@@ -3339,13 +3309,13 @@
         <v>100443</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -3354,13 +3324,13 @@
         <v>97285</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -3369,13 +3339,13 @@
         <v>197729</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3401,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3449,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3458,13 +3428,13 @@
         <v>502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3473,13 +3443,13 @@
         <v>502</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3470,7 @@
         <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3509,10 +3479,10 @@
         <v>3616</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>182</v>
@@ -3524,13 +3494,13 @@
         <v>5538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,10 +3515,10 @@
         <v>129780</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>187</v>
@@ -3664,7 +3634,7 @@
         <v>1236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -3685,7 +3655,7 @@
         <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3670,13 @@
         <v>8349</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -3715,10 +3685,10 @@
         <v>9636</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>202</v>
@@ -3736,7 +3706,7 @@
         <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3721,13 @@
         <v>528963</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>671</v>
@@ -3766,13 +3736,13 @@
         <v>466093</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>1426</v>
@@ -3787,7 +3757,7 @@
         <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3813,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA446BE-2792-4BEF-9D08-8FDFA16609DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A9ADCB-73E7-4812-870B-91D53FA5B29F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4002,13 +3972,13 @@
         <v>536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4023,7 +3993,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4023,13 @@
         <v>1610</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4068,13 +4038,13 @@
         <v>2405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4059,13 @@
         <v>97472</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7">
         <v>161</v>
@@ -4104,13 +4074,13 @@
         <v>100559</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>310</v>
@@ -4119,13 +4089,13 @@
         <v>198030</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4163,13 @@
         <v>678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4214,7 +4184,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4223,13 +4193,13 @@
         <v>1938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4214,13 @@
         <v>2654</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4259,13 +4229,13 @@
         <v>3625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -4274,13 +4244,13 @@
         <v>6279</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4265,13 @@
         <v>207260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>240</v>
@@ -4310,13 +4280,13 @@
         <v>151380</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>546</v>
@@ -4325,13 +4295,13 @@
         <v>358640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4375,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4414,13 +4384,13 @@
         <v>646</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4429,13 +4399,13 @@
         <v>646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4420,13 @@
         <v>1348</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4465,13 +4435,13 @@
         <v>3464</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4480,13 +4450,13 @@
         <v>4812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4471,13 @@
         <v>130823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -4516,13 +4486,13 @@
         <v>140204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>387</v>
@@ -4531,13 +4501,13 @@
         <v>271027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4611,7 +4581,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4626,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4641,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4626,13 @@
         <v>1502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4671,7 +4641,7 @@
         <v>657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -4686,13 +4656,13 @@
         <v>2159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4677,13 @@
         <v>128502</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7">
         <v>169</v>
@@ -4722,13 +4692,13 @@
         <v>121449</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>343</v>
@@ -4737,13 +4707,13 @@
         <v>249951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4781,13 @@
         <v>678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4829,10 +4799,10 @@
         <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4841,13 +4811,13 @@
         <v>3119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4832,13 @@
         <v>6299</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -4877,13 +4847,13 @@
         <v>9356</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4892,13 +4862,13 @@
         <v>15655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4883,13 @@
         <v>564056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>771</v>
@@ -4928,13 +4898,13 @@
         <v>513593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>1586</v>
@@ -4943,13 +4913,13 @@
         <v>1077649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +4975,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5025,7 +4995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493D3F11-0466-4DCE-B4B2-297F6732A418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9B49B-E61C-46C6-8380-E0602B399888}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5042,7 +5012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5155,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5170,7 +5140,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5185,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5170,13 @@
         <v>1092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5215,13 +5185,13 @@
         <v>2212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5230,13 +5200,13 @@
         <v>3304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5221,13 @@
         <v>57411</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
@@ -5266,13 +5236,13 @@
         <v>55157</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>219</v>
@@ -5281,13 +5251,13 @@
         <v>112567</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5325,13 @@
         <v>658</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5376,7 +5346,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5385,13 +5355,13 @@
         <v>658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5376,13 @@
         <v>4216</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5421,13 +5391,13 @@
         <v>1463</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -5436,13 +5406,13 @@
         <v>5679</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5427,13 @@
         <v>170425</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -5472,13 +5442,13 @@
         <v>157302</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -5487,13 +5457,13 @@
         <v>327726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5531,13 @@
         <v>902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5582,7 +5552,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>145</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5591,13 +5561,13 @@
         <v>902</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5582,13 @@
         <v>969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5633,7 +5603,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5642,13 +5612,13 @@
         <v>969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5633,13 @@
         <v>200607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -5678,10 +5648,10 @@
         <v>176945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>36</v>
@@ -5693,13 +5663,13 @@
         <v>377553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,7 +5725,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5773,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5782,13 +5752,13 @@
         <v>848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5797,13 +5767,13 @@
         <v>848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5788,13 @@
         <v>3236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5833,13 +5803,13 @@
         <v>9321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5848,13 +5818,13 @@
         <v>12557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5839,13 @@
         <v>286188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>339</v>
@@ -5884,13 +5854,13 @@
         <v>250464</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>676</v>
@@ -5902,10 +5872,10 @@
         <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5943,13 @@
         <v>1560</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5988,13 +5958,13 @@
         <v>848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>38</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -6003,13 +5973,13 @@
         <v>2408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +5994,13 @@
         <v>9513</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -6039,13 +6009,13 @@
         <v>12996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>351</v>
+        <v>103</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -6054,13 +6024,13 @@
         <v>22509</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6045,13 @@
         <v>714631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>934</v>
@@ -6090,13 +6060,13 @@
         <v>639867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="M22" s="7">
         <v>1896</v>
@@ -6105,13 +6075,13 @@
         <v>1354498</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,7 +6137,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C6725E-243D-49F9-9EE0-DBAE6B6E46C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88295EC2-BE1B-4536-87D7-3C5EB3B6B470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A9CDB80-2068-4CB6-B902-595307A77EB3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{17ECF3A6-473A-4164-A9DC-49B1A74E66C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="356">
   <si>
     <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,1024 +80,1033 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
     <t>2,29%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>90,3%</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D13438F-FCB5-4E3D-96B5-786969670C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F266FC-64B3-4ED8-8FC7-4B8ACED81EE2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1681,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2028</v>
+        <v>2110</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1696,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>2110</v>
+        <v>2028</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1729,10 +1738,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>86436</v>
+        <v>76449</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1744,10 +1753,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I6" s="7">
-        <v>76449</v>
+        <v>86436</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1780,25 +1789,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>119</v>
+      </c>
+      <c r="D7" s="7">
+        <v>78559</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>132</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>88464</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>119</v>
-      </c>
-      <c r="I7" s="7">
-        <v>78559</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1884,10 +1893,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>8141</v>
+        <v>5465</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -1899,10 +1908,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>5465</v>
+        <v>8141</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -1938,7 +1947,7 @@
         <v>271</v>
       </c>
       <c r="D10" s="7">
-        <v>180590</v>
+        <v>181781</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1953,7 +1962,7 @@
         <v>271</v>
       </c>
       <c r="I10" s="7">
-        <v>181781</v>
+        <v>180590</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1986,25 +1995,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>279</v>
+      </c>
+      <c r="D11" s="7">
+        <v>187246</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>284</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>188731</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>279</v>
-      </c>
-      <c r="I11" s="7">
-        <v>187246</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2090,31 +2099,31 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>1172</v>
+        <v>4636</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>4636</v>
+        <v>1172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>67</v>
@@ -2129,10 +2138,10 @@
         <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,34 +2150,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>120</v>
+      </c>
+      <c r="D14" s="7">
+        <v>81843</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
         <v>151</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>102089</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>120</v>
-      </c>
-      <c r="I14" s="7">
-        <v>81843</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -2177,13 +2186,13 @@
         <v>183931</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,25 +2201,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>127</v>
+      </c>
+      <c r="D15" s="7">
+        <v>86479</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>153</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>103261</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>127</v>
-      </c>
-      <c r="I15" s="7">
-        <v>86479</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2239,7 +2248,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2257,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2272,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2287,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,34 +2305,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7064</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="7">
         <v>7</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>4578</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7064</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2332,13 +2341,13 @@
         <v>11642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,10 +2356,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D18" s="7">
-        <v>143516</v>
+        <v>144011</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>90</v>
@@ -2362,10 +2371,10 @@
         <v>92</v>
       </c>
       <c r="H18" s="7">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I18" s="7">
-        <v>144011</v>
+        <v>143516</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>93</v>
@@ -2386,10 +2395,10 @@
         <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,25 +2407,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>221</v>
+      </c>
+      <c r="D19" s="7">
+        <v>151075</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>223</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>148094</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>221</v>
-      </c>
-      <c r="I19" s="7">
-        <v>151075</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2463,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2478,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2493,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,34 +2511,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7">
+        <v>19275</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="7">
         <v>25</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>15919</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H21" s="7">
-        <v>28</v>
-      </c>
-      <c r="I21" s="7">
-        <v>19275</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2538,13 +2547,13 @@
         <v>35195</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,34 +2562,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>718</v>
+      </c>
+      <c r="D22" s="7">
+        <v>484084</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="7">
         <v>767</v>
       </c>
-      <c r="D22" s="7">
-        <v>512631</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>512630</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="7">
-        <v>718</v>
-      </c>
-      <c r="I22" s="7">
-        <v>484084</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>1485</v>
@@ -2589,13 +2598,13 @@
         <v>996713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,25 +2613,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>746</v>
+      </c>
+      <c r="D23" s="7">
+        <v>503359</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>792</v>
       </c>
-      <c r="D23" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>746</v>
-      </c>
       <c r="I23" s="7">
-        <v>503359</v>
+        <v>528549</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2651,7 +2660,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDDC9CF-3B1C-41CE-BCC5-D9867DBA0970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B7DC9F-7F20-4E32-84B7-B017C669EA77}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2688,7 +2697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,31 +2801,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2825,13 +2834,13 @@
         <v>1481</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,31 +2852,31 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1557</v>
+        <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1108</v>
+        <v>1557</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2876,13 +2885,13 @@
         <v>2665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,34 +2900,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>151</v>
+      </c>
+      <c r="D6" s="7">
+        <v>102279</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="7">
         <v>155</v>
       </c>
-      <c r="D6" s="7">
-        <v>109738</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>109739</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="7">
-        <v>151</v>
-      </c>
-      <c r="I6" s="7">
-        <v>102279</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M6" s="7">
         <v>306</v>
@@ -2927,13 +2936,13 @@
         <v>212017</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,25 +2951,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>154</v>
+      </c>
+      <c r="D7" s="7">
+        <v>104121</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>158</v>
       </c>
-      <c r="D7" s="7">
-        <v>112042</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>154</v>
-      </c>
       <c r="I7" s="7">
-        <v>104121</v>
+        <v>112043</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3007,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3022,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3037,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,31 +3058,31 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>4223</v>
+        <v>4218</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>4218</v>
+        <v>4223</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3082,13 +3091,13 @@
         <v>8441</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,34 +3106,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>225</v>
+      </c>
+      <c r="D10" s="7">
+        <v>155126</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="7">
         <v>262</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>189001</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="7">
-        <v>225</v>
-      </c>
-      <c r="I10" s="7">
-        <v>155126</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>487</v>
@@ -3133,13 +3142,13 @@
         <v>344127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,25 +3157,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>231</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159344</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>268</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>193224</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>231</v>
-      </c>
-      <c r="I11" s="7">
-        <v>159344</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3201,34 +3210,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>722</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3237,13 +3246,13 @@
         <v>722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,31 +3264,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>695</v>
+        <v>647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3288,13 +3297,13 @@
         <v>1342</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,34 +3312,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>137</v>
+      </c>
+      <c r="D14" s="7">
+        <v>97285</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
         <v>147</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>100443</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>137</v>
-      </c>
-      <c r="I14" s="7">
-        <v>97285</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -3339,13 +3348,13 @@
         <v>197729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,25 +3363,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>138</v>
+      </c>
+      <c r="D15" s="7">
+        <v>97980</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>149</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>101812</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>97980</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3401,40 +3410,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>502</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3443,13 +3452,13 @@
         <v>502</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,34 +3467,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3616</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1922</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3616</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3494,13 +3503,13 @@
         <v>5538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,34 +3518,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>158</v>
+      </c>
+      <c r="D18" s="7">
+        <v>111402</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="7">
         <v>191</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>129780</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H18" s="7">
-        <v>158</v>
-      </c>
-      <c r="I18" s="7">
-        <v>111402</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M18" s="7">
         <v>349</v>
@@ -3545,13 +3554,13 @@
         <v>241181</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,25 +3569,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>164</v>
+      </c>
+      <c r="D19" s="7">
+        <v>115520</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>194</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>131702</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>164</v>
-      </c>
-      <c r="I19" s="7">
-        <v>115520</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3616,31 +3625,31 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1469</v>
+        <v>1236</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1236</v>
+        <v>1469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3649,13 +3658,13 @@
         <v>2705</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,34 +3673,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9636</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="7">
         <v>12</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>8349</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="7">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9636</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -3700,13 +3709,13 @@
         <v>17986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,34 +3724,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>671</v>
+      </c>
+      <c r="D22" s="7">
+        <v>466093</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="7">
         <v>755</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>528963</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H22" s="7">
-        <v>671</v>
-      </c>
-      <c r="I22" s="7">
-        <v>466093</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>1426</v>
@@ -3751,13 +3760,13 @@
         <v>995055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,25 +3775,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>687</v>
+      </c>
+      <c r="D23" s="7">
+        <v>476965</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>769</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>538781</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>687</v>
-      </c>
-      <c r="I23" s="7">
-        <v>476965</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3813,7 +3822,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A9ADCB-73E7-4812-870B-91D53FA5B29F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E826F97-578B-4D7F-ABEE-5DBCC87240E4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,34 +3960,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>536</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3987,13 +3996,13 @@
         <v>536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,34 +4011,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1610</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>795</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1610</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4038,13 +4047,13 @@
         <v>2405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,34 +4062,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>161</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100559</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="7">
         <v>149</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>97472</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="7">
-        <v>161</v>
-      </c>
-      <c r="I6" s="7">
-        <v>100559</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>310</v>
@@ -4089,13 +4098,13 @@
         <v>198030</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,25 +4113,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>165</v>
+      </c>
+      <c r="D7" s="7">
+        <v>102704</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>150</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>98267</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>165</v>
-      </c>
-      <c r="I7" s="7">
-        <v>102704</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4157,34 +4166,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1260</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>678</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1260</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4193,13 +4202,13 @@
         <v>1938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,34 +4217,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3625</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2654</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3625</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -4244,13 +4253,13 @@
         <v>6279</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,34 +4268,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>240</v>
+      </c>
+      <c r="D10" s="7">
+        <v>151380</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="7">
         <v>306</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>207260</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" s="7">
-        <v>240</v>
-      </c>
-      <c r="I10" s="7">
-        <v>151380</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>546</v>
@@ -4295,13 +4304,13 @@
         <v>358640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,25 +4319,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>248</v>
+      </c>
+      <c r="D11" s="7">
+        <v>156265</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>311</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>210592</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>248</v>
-      </c>
-      <c r="I11" s="7">
-        <v>156265</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4363,34 +4372,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>646</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4399,13 +4408,13 @@
         <v>646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,34 +4423,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3464</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1348</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3464</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4450,13 +4459,13 @@
         <v>4812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,34 +4474,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>201</v>
+      </c>
+      <c r="D14" s="7">
+        <v>140204</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="7">
         <v>186</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>130823</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>201</v>
-      </c>
-      <c r="I14" s="7">
-        <v>140204</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>387</v>
@@ -4501,13 +4510,13 @@
         <v>271027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,25 +4525,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>207</v>
+      </c>
+      <c r="D15" s="7">
+        <v>144314</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>132171</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>207</v>
-      </c>
-      <c r="I15" s="7">
-        <v>144314</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4563,7 +4572,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4581,7 +4590,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4596,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4611,7 +4620,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,34 +4629,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>657</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1502</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>657</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4656,13 +4665,13 @@
         <v>2159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,34 +4680,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>169</v>
+      </c>
+      <c r="D18" s="7">
+        <v>121449</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="7">
         <v>174</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>128502</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="7">
-        <v>169</v>
-      </c>
-      <c r="I18" s="7">
-        <v>121449</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7">
         <v>343</v>
@@ -4707,13 +4716,13 @@
         <v>249951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,25 +4731,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>170</v>
+      </c>
+      <c r="D19" s="7">
+        <v>122106</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>176</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>130004</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>170</v>
-      </c>
-      <c r="I19" s="7">
-        <v>122106</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4775,34 +4784,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2441</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>678</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2441</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4811,13 +4820,13 @@
         <v>3119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,34 +4835,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9356</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="7">
         <v>9</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>6299</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H21" s="7">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9356</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4862,10 +4871,10 @@
         <v>15655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>279</v>
@@ -4877,34 +4886,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>771</v>
+      </c>
+      <c r="D22" s="7">
+        <v>513593</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="7">
         <v>815</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>564056</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="7">
-        <v>771</v>
-      </c>
-      <c r="I22" s="7">
-        <v>513593</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>1586</v>
@@ -4913,13 +4922,13 @@
         <v>1077649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,25 +4937,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>790</v>
+      </c>
+      <c r="D23" s="7">
+        <v>525390</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>825</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>571033</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>790</v>
-      </c>
-      <c r="I23" s="7">
-        <v>525390</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4975,7 +4984,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +5004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9B49B-E61C-46C6-8380-E0602B399888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4D0DCC-AA92-481E-A77F-9CD16E2D079B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5012,7 +5021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5125,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5140,7 +5149,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5155,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,46 +5173,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2207</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>1092</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>1127</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2212</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>3304</v>
+        <v>3334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>295</v>
@@ -5215,10 +5224,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>57411</v>
+        <v>55304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>296</v>
@@ -5227,13 +5236,13 @@
         <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I6" s="7">
-        <v>55157</v>
+        <v>60317</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>298</v>
@@ -5242,22 +5251,22 @@
         <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>219</v>
       </c>
       <c r="N6" s="7">
-        <v>112567</v>
+        <v>115621</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,25 +5275,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5299,7 +5308,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5319,49 +5328,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>302</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,49 +5379,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1441</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
-        <v>4216</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
       <c r="I9" s="7">
-        <v>1463</v>
+        <v>4426</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>5679</v>
+        <v>5867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,49 +5430,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>256</v>
+      </c>
+      <c r="D10" s="7">
+        <v>157858</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="7">
         <v>270</v>
       </c>
-      <c r="D10" s="7">
-        <v>170425</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>177430</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H10" s="7">
-        <v>256</v>
-      </c>
-      <c r="I10" s="7">
-        <v>157302</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
       </c>
       <c r="N10" s="7">
-        <v>327726</v>
+        <v>335287</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,25 +5481,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5505,7 +5514,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5525,49 +5534,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>902</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>902</v>
+        <v>943</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,49 +5585,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>969</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>969</v>
+        <v>910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,49 +5636,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>234</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="7">
         <v>241</v>
       </c>
-      <c r="D14" s="7">
-        <v>200607</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>234</v>
-      </c>
       <c r="I14" s="7">
-        <v>176945</v>
+        <v>210637</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>475</v>
       </c>
       <c r="N14" s="7">
-        <v>377553</v>
+        <v>384525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,25 +5687,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5711,7 +5720,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5725,55 +5734,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>848</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>848</v>
+        <v>757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,49 +5791,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>27634</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="7">
-        <v>3236</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
       <c r="I17" s="7">
-        <v>9321</v>
+        <v>3279</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>12557</v>
+        <v>30912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,49 +5842,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>339</v>
+      </c>
+      <c r="D18" s="7">
+        <v>247068</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="7">
         <v>337</v>
       </c>
-      <c r="D18" s="7">
-        <v>286188</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H18" s="7">
-        <v>339</v>
-      </c>
       <c r="I18" s="7">
-        <v>250464</v>
+        <v>302204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>676</v>
       </c>
       <c r="N18" s="7">
-        <v>536651</v>
+        <v>549271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>336</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,7 +5896,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5902,7 +5911,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5917,7 +5926,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5937,49 +5946,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>757</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>1560</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
       <c r="I20" s="7">
-        <v>848</v>
+        <v>1642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,49 +5997,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>31282</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H21" s="7">
         <v>13</v>
       </c>
-      <c r="D21" s="7">
-        <v>9513</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>9741</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="7">
-        <v>8</v>
-      </c>
-      <c r="I21" s="7">
-        <v>12996</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
       </c>
       <c r="N21" s="7">
-        <v>22509</v>
+        <v>41023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,49 +6048,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>934</v>
+      </c>
+      <c r="D22" s="7">
+        <v>634116</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H22" s="7">
         <v>962</v>
       </c>
-      <c r="D22" s="7">
-        <v>714631</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H22" s="7">
-        <v>934</v>
-      </c>
       <c r="I22" s="7">
-        <v>639867</v>
+        <v>750589</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>1896</v>
       </c>
       <c r="N22" s="7">
-        <v>1354498</v>
+        <v>1384705</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,25 +6099,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>943</v>
+      </c>
+      <c r="D23" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
       <c r="I23" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -6123,7 +6132,7 @@
         <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -6137,7 +6146,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
